--- a/backend/servers/apiserver/common/class_file_test.xlsx
+++ b/backend/servers/apiserver/common/class_file_test.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Venue: TR+15 NORTH,NS4-05-93</t>
   </si>
   <si>
-    <t xml:space="preserve">Day-Time: Tue  0830 To: 0920 Wk2-13</t>
+    <t xml:space="preserve">Day-Time: Tue  0930 To: 1020 Wk2-13</t>
   </si>
   <si>
     <t xml:space="preserve">No.</t>
@@ -604,10 +604,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.86"/>
